--- a/static/files/locaux_collectifs.xlsx
+++ b/static/files/locaux_collectifs.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30FF978-9686-1640-88D9-2CF54B70B9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D15B31C-ACDF-914E-8847-E2D622AD6201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="27680" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="34560" yWindow="1040" windowWidth="27680" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Locaux Collectifs" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,36 +129,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -206,31 +181,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -251,9 +221,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,7 +261,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -397,7 +367,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,35 +530,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="3"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
+    <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -598,238 +576,225 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="3"/>
+    <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="3"/>
+    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3"/>
+    <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="3"/>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="3"/>
+    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3"/>
+    <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="3"/>
+    <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="3"/>
+    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="3"/>
+    <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="3"/>
+    <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="3"/>
+    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="3"/>
+    <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="3"/>
+    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="3"/>
+    <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="3"/>
+    <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="3"/>
+    <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="3"/>
+    <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="3"/>
+    <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="3"/>
+    <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="3"/>
+    <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="3"/>
+    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
+    <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -894,24 +859,4 @@
   <sheetProtection algorithmName="SHA-512" hashValue="MU3KMvdpsWCrXPo+0vW46AToCNKDCtwVVWiPZE+SH16oHAk6QUXj0pCjoJcKe+MJtGPCbpv8OvQ0gcusU4fALQ==" saltValue="/FTo2cbFRX34J/jzXJaMLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <sheetProtection algorithmName="SHA-512" hashValue="OKNnRstcB+aPDqB5tdpJA7Ti7kIZ59SJFTZ2WQTDE6hSe+YXul2eVIE/TcVxem7QOnC1+2MkXpiabbwlyt8obA==" saltValue="K5G9iuJ55YJuUFoU55UgbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>